--- a/data/pca/factorExposure/factorExposure_2009-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01729027700280531</v>
+        <v>0.01668685978962612</v>
       </c>
       <c r="C2">
-        <v>-0.001604442548282502</v>
+        <v>-0.0008694402943736407</v>
       </c>
       <c r="D2">
-        <v>0.0001965432870612179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008939390795327908</v>
+      </c>
+      <c r="E2">
+        <v>0.001562125836974253</v>
+      </c>
+      <c r="F2">
+        <v>0.01238256661001053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09808005353444907</v>
+        <v>0.09381999741288893</v>
       </c>
       <c r="C4">
-        <v>-0.02152698885725259</v>
+        <v>-0.01442971344706173</v>
       </c>
       <c r="D4">
-        <v>-0.06614601168262529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08408184602397444</v>
+      </c>
+      <c r="E4">
+        <v>0.02897506642741703</v>
+      </c>
+      <c r="F4">
+        <v>-0.03232092876010632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1429632208533665</v>
+        <v>0.1589074466942624</v>
       </c>
       <c r="C6">
-        <v>-0.02623603160494182</v>
+        <v>-0.02652148407338877</v>
       </c>
       <c r="D6">
-        <v>0.01927587254985255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02333931226776601</v>
+      </c>
+      <c r="E6">
+        <v>0.01066923712692921</v>
+      </c>
+      <c r="F6">
+        <v>-0.04335514956876156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06648474390399764</v>
+        <v>0.0636435015064265</v>
       </c>
       <c r="C7">
-        <v>-0.003797598427196246</v>
+        <v>0.001647576977432364</v>
       </c>
       <c r="D7">
-        <v>-0.03572459825215563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05248446518968469</v>
+      </c>
+      <c r="E7">
+        <v>0.01224046541268847</v>
+      </c>
+      <c r="F7">
+        <v>-0.047416804767844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06555503904073287</v>
+        <v>0.05757995169448796</v>
       </c>
       <c r="C8">
-        <v>0.009948679691295407</v>
+        <v>0.01327263646005649</v>
       </c>
       <c r="D8">
-        <v>-0.01653317746789114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03232878996453758</v>
+      </c>
+      <c r="E8">
+        <v>0.01776119995356805</v>
+      </c>
+      <c r="F8">
+        <v>0.02674144518217593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07731663749492761</v>
+        <v>0.07078245724941165</v>
       </c>
       <c r="C9">
-        <v>-0.01810892713579808</v>
+        <v>-0.01018615119641732</v>
       </c>
       <c r="D9">
-        <v>-0.06612808773956352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0869546434407784</v>
+      </c>
+      <c r="E9">
+        <v>0.02322846627927671</v>
+      </c>
+      <c r="F9">
+        <v>-0.04798712047242273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08501445435823138</v>
+        <v>0.0915921862841014</v>
       </c>
       <c r="C10">
-        <v>-0.009010147514807103</v>
+        <v>-0.02101024185117662</v>
       </c>
       <c r="D10">
-        <v>0.1713007287523783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1643024077284994</v>
+      </c>
+      <c r="E10">
+        <v>-0.03301940228398999</v>
+      </c>
+      <c r="F10">
+        <v>0.05479822982681901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09427948006788812</v>
+        <v>0.08801577841486213</v>
       </c>
       <c r="C11">
-        <v>-0.01850064437355202</v>
+        <v>-0.01026173511667163</v>
       </c>
       <c r="D11">
-        <v>-0.09807427674427248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170805368496989</v>
+      </c>
+      <c r="E11">
+        <v>0.04600898301263331</v>
+      </c>
+      <c r="F11">
+        <v>-0.02293834694071732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1011853704004176</v>
+        <v>0.09196806651486915</v>
       </c>
       <c r="C12">
-        <v>-0.01688965212119605</v>
+        <v>-0.007643109607159402</v>
       </c>
       <c r="D12">
-        <v>-0.09735220278083999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321260042982893</v>
+      </c>
+      <c r="E12">
+        <v>0.04612286205432067</v>
+      </c>
+      <c r="F12">
+        <v>-0.02927975214744961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04258406120394517</v>
+        <v>0.0414043652838756</v>
       </c>
       <c r="C13">
-        <v>-0.006407646183580253</v>
+        <v>-0.00238759556974537</v>
       </c>
       <c r="D13">
-        <v>-0.03325040462577491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05326538931067896</v>
+      </c>
+      <c r="E13">
+        <v>-0.005387940884314197</v>
+      </c>
+      <c r="F13">
+        <v>-0.002757551743201724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02241046583633616</v>
+        <v>0.02397998321944435</v>
       </c>
       <c r="C14">
-        <v>-0.01548094905792995</v>
+        <v>-0.01378740036822283</v>
       </c>
       <c r="D14">
-        <v>-0.02432014020318334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03283354875786821</v>
+      </c>
+      <c r="E14">
+        <v>0.01856240479971338</v>
+      </c>
+      <c r="F14">
+        <v>-0.01378902846200817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03659127194141323</v>
+        <v>0.03281486140728527</v>
       </c>
       <c r="C15">
-        <v>-0.008206674571385245</v>
+        <v>-0.004602453767494891</v>
       </c>
       <c r="D15">
-        <v>-0.0246110928192439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04506996753400522</v>
+      </c>
+      <c r="E15">
+        <v>0.006112346240367476</v>
+      </c>
+      <c r="F15">
+        <v>-0.02486531368264973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08145246096330837</v>
+        <v>0.07415807005874146</v>
       </c>
       <c r="C16">
-        <v>-0.009752209136212156</v>
+        <v>-0.0008286672810546836</v>
       </c>
       <c r="D16">
-        <v>-0.09975266042578497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274719134614044</v>
+      </c>
+      <c r="E16">
+        <v>0.06061899974052869</v>
+      </c>
+      <c r="F16">
+        <v>-0.02710134865272768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000704059183900268</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000170354510034626</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001184693820505584</v>
+      </c>
+      <c r="E17">
+        <v>0.0006675889490757266</v>
+      </c>
+      <c r="F17">
+        <v>0.001219207194866193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.007510064351320808</v>
+        <v>0.03626231616601949</v>
       </c>
       <c r="C18">
-        <v>0.001304478738338657</v>
+        <v>0.002988815026601914</v>
       </c>
       <c r="D18">
-        <v>-0.009536957906870374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01624795375022575</v>
+      </c>
+      <c r="E18">
+        <v>-0.008847392787102212</v>
+      </c>
+      <c r="F18">
+        <v>0.009331824641772539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06337746008065398</v>
+        <v>0.06174023681126049</v>
       </c>
       <c r="C20">
-        <v>-0.007472171719943545</v>
+        <v>4.49445749557669e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04637311691958258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07836855613653998</v>
+      </c>
+      <c r="E20">
+        <v>0.05643078927652855</v>
+      </c>
+      <c r="F20">
+        <v>-0.02613159233346142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04410677796556529</v>
+        <v>0.04067075175167423</v>
       </c>
       <c r="C21">
-        <v>-0.01070314307079551</v>
+        <v>-0.006388006147573203</v>
       </c>
       <c r="D21">
-        <v>-0.01290810824400209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03805490423272568</v>
+      </c>
+      <c r="E21">
+        <v>-0.001908577818012239</v>
+      </c>
+      <c r="F21">
+        <v>0.02393732273073697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0415180627869774</v>
+        <v>0.04307161547082187</v>
       </c>
       <c r="C22">
-        <v>-0.0002087151380547781</v>
+        <v>-0.0003213576567722832</v>
       </c>
       <c r="D22">
-        <v>0.01106553815564101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006401731695493259</v>
+      </c>
+      <c r="E22">
+        <v>0.03449830057795525</v>
+      </c>
+      <c r="F22">
+        <v>0.03578095090757868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04147948397076522</v>
+        <v>0.04304735797383253</v>
       </c>
       <c r="C23">
-        <v>-0.0001996158385131112</v>
+        <v>-0.0003128717089423136</v>
       </c>
       <c r="D23">
-        <v>0.01104075226153087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006417332979842689</v>
+      </c>
+      <c r="E23">
+        <v>0.03468113526638188</v>
+      </c>
+      <c r="F23">
+        <v>0.03574325110944492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08462519576377996</v>
+        <v>0.07993325756201689</v>
       </c>
       <c r="C24">
-        <v>-0.01015193763040801</v>
+        <v>-0.001511650082834813</v>
       </c>
       <c r="D24">
-        <v>-0.1052218095292961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.12075682350996</v>
+      </c>
+      <c r="E24">
+        <v>0.04861641634582898</v>
+      </c>
+      <c r="F24">
+        <v>-0.02788743378231897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09195385881333422</v>
+        <v>0.0852126531304206</v>
       </c>
       <c r="C25">
-        <v>-0.01228466109255783</v>
+        <v>-0.00423383152727051</v>
       </c>
       <c r="D25">
-        <v>-0.0884564117983193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095667500427814</v>
+      </c>
+      <c r="E25">
+        <v>0.03201301533634757</v>
+      </c>
+      <c r="F25">
+        <v>-0.02761607628685206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.059043120767098</v>
+        <v>0.05885687790894934</v>
       </c>
       <c r="C26">
-        <v>-0.01861266332644526</v>
+        <v>-0.01433600954492851</v>
       </c>
       <c r="D26">
-        <v>-0.01263873432634629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04110088958178829</v>
+      </c>
+      <c r="E26">
+        <v>0.02865723646818542</v>
+      </c>
+      <c r="F26">
+        <v>0.007327639407465979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1317649112394593</v>
+        <v>0.1424041965504971</v>
       </c>
       <c r="C28">
-        <v>-0.005415796722956013</v>
+        <v>-0.02238105265644564</v>
       </c>
       <c r="D28">
-        <v>0.2797120360501366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609895204867393</v>
+      </c>
+      <c r="E28">
+        <v>-0.06698819996207321</v>
+      </c>
+      <c r="F28">
+        <v>-0.007754708307274222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02753749530480551</v>
+        <v>0.02856056194161731</v>
       </c>
       <c r="C29">
-        <v>-0.01017836535784987</v>
+        <v>-0.008665916588707002</v>
       </c>
       <c r="D29">
-        <v>-0.01926919869116415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03118420750866728</v>
+      </c>
+      <c r="E29">
+        <v>0.0136979420003574</v>
+      </c>
+      <c r="F29">
+        <v>0.01297106092513975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07064898040200213</v>
+        <v>0.05858103248686043</v>
       </c>
       <c r="C30">
-        <v>-0.01030812722016206</v>
+        <v>-0.002432106664000498</v>
       </c>
       <c r="D30">
-        <v>-0.07211063658994186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08952496580537384</v>
+      </c>
+      <c r="E30">
+        <v>0.0155225876338961</v>
+      </c>
+      <c r="F30">
+        <v>-0.07766330465141009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05202902304343809</v>
+        <v>0.05104241022509525</v>
       </c>
       <c r="C31">
-        <v>-0.01695594365906722</v>
+        <v>-0.01545972902294698</v>
       </c>
       <c r="D31">
-        <v>-0.0225172291211029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02520876763031932</v>
+      </c>
+      <c r="E31">
+        <v>0.02883945411675865</v>
+      </c>
+      <c r="F31">
+        <v>0.001228317799003036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04541518702309835</v>
+        <v>0.05108545862776048</v>
       </c>
       <c r="C32">
-        <v>-0.002042015242704744</v>
+        <v>0.001940312675361288</v>
       </c>
       <c r="D32">
-        <v>-0.02026708030074909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03654668701562173</v>
+      </c>
+      <c r="E32">
+        <v>0.034196093709239</v>
+      </c>
+      <c r="F32">
+        <v>-0.00355549272573925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09560757378001682</v>
+        <v>0.08862354897042354</v>
       </c>
       <c r="C33">
-        <v>-0.01489954934768262</v>
+        <v>-0.006542626550152394</v>
       </c>
       <c r="D33">
-        <v>-0.07932842137832812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1016037050325639</v>
+      </c>
+      <c r="E33">
+        <v>0.0432459796906481</v>
+      </c>
+      <c r="F33">
+        <v>-0.03813756636242552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07551011518850434</v>
+        <v>0.06767729886061588</v>
       </c>
       <c r="C34">
-        <v>-0.01676802059348666</v>
+        <v>-0.009930803735375728</v>
       </c>
       <c r="D34">
-        <v>-0.09046856649168952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097545701185921</v>
+      </c>
+      <c r="E34">
+        <v>0.03439672885489392</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392945257664625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0234187732109573</v>
+        <v>0.02529496476441633</v>
       </c>
       <c r="C35">
-        <v>-0.002751904340055324</v>
+        <v>-0.002538967298075128</v>
       </c>
       <c r="D35">
-        <v>-0.003789394310966227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01140194854779042</v>
+      </c>
+      <c r="E35">
+        <v>0.01189606410225223</v>
+      </c>
+      <c r="F35">
+        <v>-0.001274946658834123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02295559338049136</v>
+        <v>0.02755890644079923</v>
       </c>
       <c r="C36">
-        <v>-0.009014483498733537</v>
+        <v>-0.006790590017018418</v>
       </c>
       <c r="D36">
-        <v>-0.02975562408170771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04005903722518132</v>
+      </c>
+      <c r="E36">
+        <v>0.01663935368121655</v>
+      </c>
+      <c r="F36">
+        <v>-0.01580419488231563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0005262889402020584</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006126469584274484</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002090491661165107</v>
+      </c>
+      <c r="E37">
+        <v>-0.001112647112384029</v>
+      </c>
+      <c r="F37">
+        <v>-7.988743987877403e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0002785081510977122</v>
+        <v>-0.0001694847382224369</v>
       </c>
       <c r="C38">
-        <v>4.04228861680265e-05</v>
+        <v>1.888200438580764e-05</v>
       </c>
       <c r="D38">
-        <v>0.001104469393735987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0008509590104149188</v>
+      </c>
+      <c r="E38">
+        <v>-0.001143091226990855</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003063101140316628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1192062110903726</v>
+        <v>0.1040550688350987</v>
       </c>
       <c r="C39">
-        <v>-0.02623571654329615</v>
+        <v>-0.01538824460894988</v>
       </c>
       <c r="D39">
-        <v>-0.1391663243547498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.154896150575805</v>
+      </c>
+      <c r="E39">
+        <v>0.05954526068038891</v>
+      </c>
+      <c r="F39">
+        <v>-0.02993824347381422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03628577569070086</v>
+        <v>0.04114735932600651</v>
       </c>
       <c r="C40">
-        <v>-0.009938664321813529</v>
+        <v>-0.007020959832986667</v>
       </c>
       <c r="D40">
-        <v>0.005433223685273727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03158734988047556</v>
+      </c>
+      <c r="E40">
+        <v>0.002084773334080096</v>
+      </c>
+      <c r="F40">
+        <v>0.01617352597802979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02480269322345446</v>
+        <v>0.02794809267042261</v>
       </c>
       <c r="C41">
-        <v>-0.007705801549641505</v>
+        <v>-0.006867109494328842</v>
       </c>
       <c r="D41">
-        <v>-0.006883896040528402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01099586186082212</v>
+      </c>
+      <c r="E41">
+        <v>0.0124131554770467</v>
+      </c>
+      <c r="F41">
+        <v>0.005891949129269373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04059054593762648</v>
+        <v>0.04073420697855859</v>
       </c>
       <c r="C43">
-        <v>-0.008638263101050129</v>
+        <v>-0.007052881898887682</v>
       </c>
       <c r="D43">
-        <v>-0.009152423657989177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01900820380215634</v>
+      </c>
+      <c r="E43">
+        <v>0.02531939134136876</v>
+      </c>
+      <c r="F43">
+        <v>0.01229824891173129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08060725753606163</v>
+        <v>0.07894477662071145</v>
       </c>
       <c r="C44">
-        <v>-0.02812428107860059</v>
+        <v>-0.01902987709423828</v>
       </c>
       <c r="D44">
-        <v>-0.07253661370091569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09770727985705292</v>
+      </c>
+      <c r="E44">
+        <v>0.06117012873056817</v>
+      </c>
+      <c r="F44">
+        <v>-0.1571249365314994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01887761879069063</v>
+        <v>0.02316809422799225</v>
       </c>
       <c r="C46">
-        <v>-0.004025443417915582</v>
+        <v>-0.003221584589644793</v>
       </c>
       <c r="D46">
-        <v>0.001507367682299876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01352436000742844</v>
+      </c>
+      <c r="E46">
+        <v>0.02599838806437596</v>
+      </c>
+      <c r="F46">
+        <v>0.005592334207317661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05192639821142193</v>
+        <v>0.05277141596205781</v>
       </c>
       <c r="C47">
-        <v>-0.004583071078607723</v>
+        <v>-0.003561391565858241</v>
       </c>
       <c r="D47">
-        <v>-0.002075039501598961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01271050201508136</v>
+      </c>
+      <c r="E47">
+        <v>0.02353456530983419</v>
+      </c>
+      <c r="F47">
+        <v>0.03163873126638594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04687456281078672</v>
+        <v>0.05033005610447516</v>
       </c>
       <c r="C48">
-        <v>-0.006267742320184277</v>
+        <v>-0.002162970757882814</v>
       </c>
       <c r="D48">
-        <v>-0.03519886546128186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05038432607391972</v>
+      </c>
+      <c r="E48">
+        <v>-0.00471807068411958</v>
+      </c>
+      <c r="F48">
+        <v>-0.01002012019016261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2024959973456642</v>
+        <v>0.2000463571832057</v>
       </c>
       <c r="C49">
-        <v>-0.01852662513152492</v>
+        <v>-0.01881312656435517</v>
       </c>
       <c r="D49">
-        <v>0.006811707885702982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006878650508710235</v>
+      </c>
+      <c r="E49">
+        <v>0.03060499200705836</v>
+      </c>
+      <c r="F49">
+        <v>-0.03714412630375931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05158689685597342</v>
+        <v>0.05132180904454835</v>
       </c>
       <c r="C50">
-        <v>-0.01308328894334816</v>
+        <v>-0.01116929343610542</v>
       </c>
       <c r="D50">
-        <v>-0.02088014745021411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02445903204634388</v>
+      </c>
+      <c r="E50">
+        <v>0.03009723459583757</v>
+      </c>
+      <c r="F50">
+        <v>-0.009515966365383294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1567047356147881</v>
+        <v>0.1485555337648511</v>
       </c>
       <c r="C52">
-        <v>-0.01877837666113022</v>
+        <v>-0.01723190530182476</v>
       </c>
       <c r="D52">
-        <v>-0.05781211047153118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04260241092694987</v>
+      </c>
+      <c r="E52">
+        <v>0.02056864909028475</v>
+      </c>
+      <c r="F52">
+        <v>-0.04361072024311693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1709419482436644</v>
+        <v>0.1713042996571838</v>
       </c>
       <c r="C53">
-        <v>-0.01778426518873682</v>
+        <v>-0.01979712156031151</v>
       </c>
       <c r="D53">
-        <v>-0.02899704964869533</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005353700045706533</v>
+      </c>
+      <c r="E53">
+        <v>0.02868733971387118</v>
+      </c>
+      <c r="F53">
+        <v>-0.0749385996608883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02119210217809005</v>
+        <v>0.0205538364959672</v>
       </c>
       <c r="C54">
-        <v>-0.01298165289366407</v>
+        <v>-0.01127734560017951</v>
       </c>
       <c r="D54">
-        <v>-0.02303897094132635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03449443410741766</v>
+      </c>
+      <c r="E54">
+        <v>0.02180936100190132</v>
+      </c>
+      <c r="F54">
+        <v>0.005419779714825825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169171802824157</v>
+        <v>0.1147279316728911</v>
       </c>
       <c r="C55">
-        <v>-0.0163926904901464</v>
+        <v>-0.01747003915643442</v>
       </c>
       <c r="D55">
-        <v>-0.02288405305463622</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007357983637087236</v>
+      </c>
+      <c r="E55">
+        <v>0.02379408597918412</v>
+      </c>
+      <c r="F55">
+        <v>-0.04775057258388912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1785763212797325</v>
+        <v>0.1769227514679912</v>
       </c>
       <c r="C56">
-        <v>-0.01566576995963109</v>
+        <v>-0.01759665890190188</v>
       </c>
       <c r="D56">
-        <v>-0.01534079716792843</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001600471965344475</v>
+      </c>
+      <c r="E56">
+        <v>0.03359738135233984</v>
+      </c>
+      <c r="F56">
+        <v>-0.05254392416441532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04614152200530133</v>
+        <v>0.04494972973543747</v>
       </c>
       <c r="C58">
-        <v>-0.007080115862236105</v>
+        <v>0.0004556723772277709</v>
       </c>
       <c r="D58">
-        <v>-0.04905465489646835</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07210163473648516</v>
+      </c>
+      <c r="E58">
+        <v>0.03258593264214882</v>
+      </c>
+      <c r="F58">
+        <v>0.03890388703705171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.164265579362157</v>
+        <v>0.1680939691113749</v>
       </c>
       <c r="C59">
-        <v>-0.007071910874763909</v>
+        <v>-0.02261739932657243</v>
       </c>
       <c r="D59">
-        <v>0.2257358866606585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169379396270085</v>
+      </c>
+      <c r="E59">
+        <v>-0.04571453124775346</v>
+      </c>
+      <c r="F59">
+        <v>0.03623370951230085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2409116573542041</v>
+        <v>0.2318415051189622</v>
       </c>
       <c r="C60">
-        <v>0.0006790925575822349</v>
+        <v>0.002279356964027624</v>
       </c>
       <c r="D60">
-        <v>-0.05973607005579894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04128083900728903</v>
+      </c>
+      <c r="E60">
+        <v>0.009242911164017542</v>
+      </c>
+      <c r="F60">
+        <v>0.005592286374364284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09315342114335165</v>
+        <v>0.08011409458223505</v>
       </c>
       <c r="C61">
-        <v>-0.01898918538730761</v>
+        <v>-0.01105124747364831</v>
       </c>
       <c r="D61">
-        <v>-0.09788514087213637</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179990314466719</v>
+      </c>
+      <c r="E61">
+        <v>0.03942271191707048</v>
+      </c>
+      <c r="F61">
+        <v>-0.01369825730628966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1724068043908302</v>
+        <v>0.1695741855413244</v>
       </c>
       <c r="C62">
-        <v>-0.01940790613567831</v>
+        <v>-0.02064175980194192</v>
       </c>
       <c r="D62">
-        <v>-0.01518537299980217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005659438144859736</v>
+      </c>
+      <c r="E62">
+        <v>0.03369208579313856</v>
+      </c>
+      <c r="F62">
+        <v>-0.03614907878342446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04701849395387946</v>
+        <v>0.0455387738275282</v>
       </c>
       <c r="C63">
-        <v>-0.006732511683744172</v>
+        <v>-0.001604449854209173</v>
       </c>
       <c r="D63">
-        <v>-0.04216983985228175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05937378524474295</v>
+      </c>
+      <c r="E63">
+        <v>0.02323889369242646</v>
+      </c>
+      <c r="F63">
+        <v>-0.003499199800918881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1071550716150552</v>
+        <v>0.1104102753725923</v>
       </c>
       <c r="C64">
-        <v>-0.01506611815446082</v>
+        <v>-0.01132637852207548</v>
       </c>
       <c r="D64">
-        <v>-0.02526697297936506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0435441104808628</v>
+      </c>
+      <c r="E64">
+        <v>0.02288030634614639</v>
+      </c>
+      <c r="F64">
+        <v>-0.02454785294781137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1369037137878685</v>
+        <v>0.1504432829780535</v>
       </c>
       <c r="C65">
-        <v>-0.03159123030261496</v>
+        <v>-0.03399064137202682</v>
       </c>
       <c r="D65">
-        <v>0.04194290188150306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04376608120726019</v>
+      </c>
+      <c r="E65">
+        <v>0.007037422231255068</v>
+      </c>
+      <c r="F65">
+        <v>-0.03801285435388021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.145848646406282</v>
+        <v>0.1235173760666631</v>
       </c>
       <c r="C66">
-        <v>-0.0230049418013073</v>
+        <v>-0.01327333933831616</v>
       </c>
       <c r="D66">
-        <v>-0.1225157263690613</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1436008913002775</v>
+      </c>
+      <c r="E66">
+        <v>0.06570808240128102</v>
+      </c>
+      <c r="F66">
+        <v>-0.03422153734225822</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06205678435620454</v>
+        <v>0.05759257660264401</v>
       </c>
       <c r="C67">
-        <v>-0.006334234752864609</v>
+        <v>-0.002821791206571597</v>
       </c>
       <c r="D67">
-        <v>-0.05541504709612344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05560152552351026</v>
+      </c>
+      <c r="E67">
+        <v>0.01644898866745014</v>
+      </c>
+      <c r="F67">
+        <v>0.03160510281059934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1026725208226873</v>
+        <v>0.1167500808501901</v>
       </c>
       <c r="C68">
-        <v>-0.01542233316116387</v>
+        <v>-0.03316810156009821</v>
       </c>
       <c r="D68">
-        <v>0.274598038587586</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261087217296195</v>
+      </c>
+      <c r="E68">
+        <v>-0.08683063349810886</v>
+      </c>
+      <c r="F68">
+        <v>-0.002989537800074759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04171942458109347</v>
+        <v>0.03922754875860132</v>
       </c>
       <c r="C69">
-        <v>-0.0009997336700156153</v>
+        <v>-0.001182669716999261</v>
       </c>
       <c r="D69">
-        <v>-0.01167604446030934</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00876144086316964</v>
+      </c>
+      <c r="E69">
+        <v>0.02426380726979303</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005291560014211058</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06512478610072214</v>
+        <v>0.06671513231786053</v>
       </c>
       <c r="C70">
-        <v>0.02345291336613445</v>
+        <v>0.02748046740543441</v>
       </c>
       <c r="D70">
-        <v>0.02532649117216211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02441978839040351</v>
+      </c>
+      <c r="E70">
+        <v>-0.03252962331997726</v>
+      </c>
+      <c r="F70">
+        <v>0.1873288453925243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1191622470290643</v>
+        <v>0.1364867122185353</v>
       </c>
       <c r="C71">
-        <v>-0.01901269707876329</v>
+        <v>-0.03747677218208142</v>
       </c>
       <c r="D71">
-        <v>0.2925458965834342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.272279735384493</v>
+      </c>
+      <c r="E71">
+        <v>-0.09725225834489992</v>
+      </c>
+      <c r="F71">
+        <v>-0.008662860763119409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1366314159714724</v>
+        <v>0.1427586180652173</v>
       </c>
       <c r="C72">
-        <v>-0.02632448123098969</v>
+        <v>-0.02722814832325881</v>
       </c>
       <c r="D72">
-        <v>-0.005843123080100422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003800851333620488</v>
+      </c>
+      <c r="E72">
+        <v>0.03587403582263816</v>
+      </c>
+      <c r="F72">
+        <v>-0.03265952797690864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2045217762095346</v>
+        <v>0.2041763280492326</v>
       </c>
       <c r="C73">
-        <v>-0.01434111108037148</v>
+        <v>-0.01290657375905556</v>
       </c>
       <c r="D73">
-        <v>-0.03077395167747915</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01676182926282065</v>
+      </c>
+      <c r="E73">
+        <v>0.06293715377292478</v>
+      </c>
+      <c r="F73">
+        <v>-0.03765825558078063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09137865513308145</v>
+        <v>0.09469941846865884</v>
       </c>
       <c r="C74">
-        <v>-0.01281577881552856</v>
+        <v>-0.01334512369966493</v>
       </c>
       <c r="D74">
-        <v>-0.03099099483819666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01700286587005068</v>
+      </c>
+      <c r="E74">
+        <v>0.04401700678885685</v>
+      </c>
+      <c r="F74">
+        <v>-0.0582280536018659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1351892992320763</v>
+        <v>0.1275940478986664</v>
       </c>
       <c r="C75">
-        <v>-0.02859026825358234</v>
+        <v>-0.02828361834366789</v>
       </c>
       <c r="D75">
-        <v>-0.04367771656557272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0304711075216934</v>
+      </c>
+      <c r="E75">
+        <v>0.05800971330544576</v>
+      </c>
+      <c r="F75">
+        <v>-0.02300858308876528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0749736444296592</v>
+        <v>0.08881709546144183</v>
       </c>
       <c r="C77">
-        <v>-0.01664757687176551</v>
+        <v>-0.00802845148062725</v>
       </c>
       <c r="D77">
-        <v>-0.09630287114235175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1124829859093263</v>
+      </c>
+      <c r="E77">
+        <v>0.04133815344222672</v>
+      </c>
+      <c r="F77">
+        <v>-0.03461139111124947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1048308747828024</v>
+        <v>0.1004895841922022</v>
       </c>
       <c r="C78">
-        <v>-0.04831264909264479</v>
+        <v>-0.03938649267172713</v>
       </c>
       <c r="D78">
-        <v>-0.09879644899766075</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1135298146640179</v>
+      </c>
+      <c r="E78">
+        <v>0.07429130286081329</v>
+      </c>
+      <c r="F78">
+        <v>-0.05075128024593382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1660360170414288</v>
+        <v>0.1635373940570027</v>
       </c>
       <c r="C79">
-        <v>-0.02274681829554622</v>
+        <v>-0.02296265235479197</v>
       </c>
       <c r="D79">
-        <v>-0.01819103241107805</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01482856696544113</v>
+      </c>
+      <c r="E79">
+        <v>0.04620046301986502</v>
+      </c>
+      <c r="F79">
+        <v>-0.01259101430976499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08869030014038096</v>
+        <v>0.08200950714916996</v>
       </c>
       <c r="C80">
-        <v>-0.00220183178152613</v>
+        <v>0.001076618634239268</v>
       </c>
       <c r="D80">
-        <v>-0.04903362811026229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05721762398543508</v>
+      </c>
+      <c r="E80">
+        <v>0.0362487360763833</v>
+      </c>
+      <c r="F80">
+        <v>0.02237208158983845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1216549173364182</v>
+        <v>0.1187506131804914</v>
       </c>
       <c r="C81">
-        <v>-0.03033719811897176</v>
+        <v>-0.03185007336691523</v>
       </c>
       <c r="D81">
-        <v>-0.04531739511149262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01581563400479901</v>
+      </c>
+      <c r="E81">
+        <v>0.05707958368906134</v>
+      </c>
+      <c r="F81">
+        <v>-0.01888191417413937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1627847467426549</v>
+        <v>0.1652578183701964</v>
       </c>
       <c r="C82">
-        <v>-0.02286156819894714</v>
+        <v>-0.02488799067593222</v>
       </c>
       <c r="D82">
-        <v>-0.029286593521651</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004284840525231621</v>
+      </c>
+      <c r="E82">
+        <v>0.02621090255502444</v>
+      </c>
+      <c r="F82">
+        <v>-0.08215230253905864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07088025005453646</v>
+        <v>0.05856404172578788</v>
       </c>
       <c r="C83">
-        <v>-0.006627180295215859</v>
+        <v>-0.002724761538943985</v>
       </c>
       <c r="D83">
-        <v>-0.02894742047147961</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05078305382654804</v>
+      </c>
+      <c r="E83">
+        <v>0.002971435887121052</v>
+      </c>
+      <c r="F83">
+        <v>0.02976143724338932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06897395595667205</v>
+        <v>0.05951433544742231</v>
       </c>
       <c r="C84">
-        <v>-0.01564728863066833</v>
+        <v>-0.01125379385677206</v>
       </c>
       <c r="D84">
-        <v>-0.0556482684714996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06307352638338318</v>
+      </c>
+      <c r="E84">
+        <v>0.00691296667225114</v>
+      </c>
+      <c r="F84">
+        <v>-0.005754765827214707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1385729710897005</v>
+        <v>0.1355960031957837</v>
       </c>
       <c r="C85">
-        <v>-0.02765334753953894</v>
+        <v>-0.02824967158915693</v>
       </c>
       <c r="D85">
-        <v>-0.02240419158087244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00950819464438174</v>
+      </c>
+      <c r="E85">
+        <v>0.03643965217068783</v>
+      </c>
+      <c r="F85">
+        <v>-0.04804838125812936</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09870566340752082</v>
+        <v>0.09450459565961147</v>
       </c>
       <c r="C86">
-        <v>0.001126158837969361</v>
+        <v>0.005606874238540065</v>
       </c>
       <c r="D86">
-        <v>0.03361930025424797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04267407935626045</v>
+      </c>
+      <c r="E86">
+        <v>0.2290112534984874</v>
+      </c>
+      <c r="F86">
+        <v>0.9035826375847127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09909061107595751</v>
+        <v>0.09430270140845479</v>
       </c>
       <c r="C87">
-        <v>-0.03008527279519073</v>
+        <v>-0.0191030892302473</v>
       </c>
       <c r="D87">
-        <v>-0.0535245115487263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09405279744729481</v>
+      </c>
+      <c r="E87">
+        <v>-0.05344753412532208</v>
+      </c>
+      <c r="F87">
+        <v>-0.04537326163921056</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05899794235094959</v>
+        <v>0.06056277306256026</v>
       </c>
       <c r="C88">
-        <v>-0.006414475474199076</v>
+        <v>-0.002118579034736196</v>
       </c>
       <c r="D88">
-        <v>-0.04697461782437037</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0498446169712603</v>
+      </c>
+      <c r="E88">
+        <v>0.0243638036197787</v>
+      </c>
+      <c r="F88">
+        <v>-0.01406862269444788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1176899115758908</v>
+        <v>0.1296482859484581</v>
       </c>
       <c r="C89">
-        <v>0.002137935736809603</v>
+        <v>-0.01368506223780951</v>
       </c>
       <c r="D89">
-        <v>0.2773391769695735</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2456607208392688</v>
+      </c>
+      <c r="E89">
+        <v>-0.0891191838227238</v>
+      </c>
+      <c r="F89">
+        <v>0.009264406785022638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1306737800330062</v>
+        <v>0.1512947528972168</v>
       </c>
       <c r="C90">
-        <v>-0.0163928703292933</v>
+        <v>-0.03429453115437841</v>
       </c>
       <c r="D90">
-        <v>0.2927898863214977</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2711699270101537</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138310215556005</v>
+      </c>
+      <c r="F90">
+        <v>0.008120796631025527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1208090715420522</v>
+        <v>0.1212094886920791</v>
       </c>
       <c r="C91">
-        <v>-0.01730206989143721</v>
+        <v>-0.01994595581891244</v>
       </c>
       <c r="D91">
-        <v>-0.003686798439961386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01500398597857231</v>
+      </c>
+      <c r="E91">
+        <v>0.05556531051333227</v>
+      </c>
+      <c r="F91">
+        <v>-0.0001549388847579375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1416735725866638</v>
+        <v>0.1479105560509925</v>
       </c>
       <c r="C92">
-        <v>-0.00458198731246287</v>
+        <v>-0.02487844843047927</v>
       </c>
       <c r="D92">
-        <v>0.3163305356774319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911190745436964</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015262177935406</v>
+      </c>
+      <c r="F92">
+        <v>0.0126827703482184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1353030023850217</v>
+        <v>0.1515261274816131</v>
       </c>
       <c r="C93">
-        <v>-0.01168744420300864</v>
+        <v>-0.02935199157904371</v>
       </c>
       <c r="D93">
-        <v>0.2758843830685997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672952018412578</v>
+      </c>
+      <c r="E93">
+        <v>-0.07814856080044288</v>
+      </c>
+      <c r="F93">
+        <v>-0.002597276990852017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1352184633682433</v>
+        <v>0.1286027221051694</v>
       </c>
       <c r="C94">
-        <v>-0.02576475468107429</v>
+        <v>-0.02469672311218018</v>
       </c>
       <c r="D94">
-        <v>-0.06001339445211096</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04158285347580416</v>
+      </c>
+      <c r="E94">
+        <v>0.05744376864693838</v>
+      </c>
+      <c r="F94">
+        <v>-0.03636849075713519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1277508894129976</v>
+        <v>0.1265218161594767</v>
       </c>
       <c r="C95">
-        <v>-0.0113625720587665</v>
+        <v>-0.003145219269596235</v>
       </c>
       <c r="D95">
-        <v>-0.07090084643055337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09468623738993279</v>
+      </c>
+      <c r="E95">
+        <v>0.0501197131600025</v>
+      </c>
+      <c r="F95">
+        <v>0.007747042062544091</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1109556060469621</v>
+        <v>0.1093049859047137</v>
       </c>
       <c r="C96">
-        <v>0.9883508663220706</v>
+        <v>0.9870595555892939</v>
       </c>
       <c r="D96">
-        <v>-0.01292386009075938</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05195279615806105</v>
+      </c>
+      <c r="E96">
+        <v>0.05292603590875433</v>
+      </c>
+      <c r="F96">
+        <v>-0.04270478671637897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1914246316824185</v>
+        <v>0.1908262277883723</v>
       </c>
       <c r="C97">
-        <v>0.00785164571128638</v>
+        <v>0.006976289463539778</v>
       </c>
       <c r="D97">
-        <v>0.0352847554311193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02004233254869328</v>
+      </c>
+      <c r="E97">
+        <v>0.02135479451809203</v>
+      </c>
+      <c r="F97">
+        <v>0.09583077346780446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1943662479535219</v>
+        <v>0.2058440995211053</v>
       </c>
       <c r="C98">
-        <v>-0.01042329334990317</v>
+        <v>-0.007099738222127954</v>
       </c>
       <c r="D98">
-        <v>0.002044854654273122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01280129613517346</v>
+      </c>
+      <c r="E98">
+        <v>-0.07772406929658163</v>
+      </c>
+      <c r="F98">
+        <v>0.09306336324762272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05448940386439882</v>
+        <v>0.05497561444880263</v>
       </c>
       <c r="C99">
-        <v>0.001798939374868275</v>
+        <v>0.004483049854490497</v>
       </c>
       <c r="D99">
-        <v>-0.02116299860330192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03975876727838928</v>
+      </c>
+      <c r="E99">
+        <v>0.02252816245387838</v>
+      </c>
+      <c r="F99">
+        <v>-0.003153539928722605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1329198191179853</v>
+        <v>0.1278756571447741</v>
       </c>
       <c r="C100">
-        <v>0.02792939028836195</v>
+        <v>0.0535577607862009</v>
       </c>
       <c r="D100">
-        <v>-0.3677279135931372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3466978098248942</v>
+      </c>
+      <c r="E100">
+        <v>-0.8859143924286768</v>
+      </c>
+      <c r="F100">
+        <v>0.1569720302224074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02737734956328649</v>
+        <v>0.02852302314632519</v>
       </c>
       <c r="C101">
-        <v>-0.01012841120513892</v>
+        <v>-0.008691098786515384</v>
       </c>
       <c r="D101">
-        <v>-0.01864079653198618</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03078771180994927</v>
+      </c>
+      <c r="E101">
+        <v>0.01309447912156052</v>
+      </c>
+      <c r="F101">
+        <v>0.01419351483930506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
